--- a/fhir/core/ValueSet-dk-core-SCTBasicObservation.xlsx
+++ b/fhir/core/ValueSet-dk-core-SCTBasicObservation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0</t>
+    <t>3.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Dk Core SNOMED CT Basic Observation</t>
+    <t>DK Core SNOMED CT Basic Observation</t>
   </si>
   <si>
     <t>Status</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-08T21:51:35+01:00</t>
+    <t>2024-05-06T15:28:33+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>HL7 Denmark (http://www.hl7.dk, jenskristianvilladsen@gmail.com)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/fhir/core/ValueSet-dk-core-SCTBasicObservation.xlsx
+++ b/fhir/core/ValueSet-dk-core-SCTBasicObservation.xlsx
@@ -7,10 +7,10 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from SNOMED CT" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from SNOMED CT 2" r:id="rId5" sheetId="3"/>
-    <sheet name="Include from SNOMED CT 3" r:id="rId6" sheetId="4"/>
-    <sheet name="Include from SNOMED CT 4" r:id="rId7" sheetId="5"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #1" r:id="rId5" sheetId="3"/>
+    <sheet name="Include #2" r:id="rId6" sheetId="4"/>
+    <sheet name="Include #3" r:id="rId7" sheetId="5"/>
   </sheets>
 </workbook>
 </file>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.2.0</t>
+    <t>3.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-06T15:28:33+02:00</t>
+    <t>2024-12-11T09:54:35+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/core/ValueSet-dk-core-SCTBasicObservation.xlsx
+++ b/fhir/core/ValueSet-dk-core-SCTBasicObservation.xlsx
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T09:54:35+01:00</t>
+    <t>2024-12-11T10:20:02+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/core/ValueSet-dk-core-SCTBasicObservation.xlsx
+++ b/fhir/core/ValueSet-dk-core-SCTBasicObservation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="66">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.3.0</t>
+    <t>3.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T10:20:02+01:00</t>
+    <t>2025-02-01T19:23:09+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>Copyright</t>
+  </si>
+  <si>
+    <t>This value set includes content from SNOMED CT, which is copyright © 2002+ International Health Terminology Standards Development Organisation (IHTSDO), and distributed by agreement between IHTSDO and HL7. Implementer use of SNOMED CT is not covered by this agreement</t>
   </si>
   <si>
     <t>Immutable</t>
@@ -460,14 +463,16 @@
       <c r="A14" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" t="s" s="2">
+        <v>26</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -489,7 +494,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s" s="1">
         <v>22</v>
@@ -497,180 +502,180 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B25" s="2"/>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B27" s="2"/>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B28" s="2"/>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -695,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s" s="1">
         <v>1</v>
@@ -703,29 +708,29 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -750,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s" s="1">
         <v>1</v>
@@ -758,29 +763,29 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -805,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s" s="1">
         <v>1</v>
@@ -813,29 +818,29 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/fhir/core/ValueSet-dk-core-SCTBasicObservation.xlsx
+++ b/fhir/core/ValueSet-dk-core-SCTBasicObservation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.0</t>
+    <t>3.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-01T19:23:09+01:00</t>
+    <t>2025-12-19T17:27:08+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>HL7 Denmark (http://www.hl7.dk, jenskristianvilladsen@gmail.com)</t>
+    <t>HL7 Denmark (http://www.hl7.dk, dk-affiliate@hl7.dk)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
